--- a/Gestion Stock 2026/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Seghouane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F10339-D39B-4364-9BBB-9A358845B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64A8D5-F70E-4E56-B3A1-F5991EF323EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -112,6 +112,36 @@
   </si>
   <si>
     <t>Mois de JANVIER 2026</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>15/21</t>
+  </si>
+  <si>
+    <t>2025177841</t>
+  </si>
+  <si>
+    <t>2025177842</t>
+  </si>
+  <si>
+    <t>NB(197/2025)</t>
+  </si>
+  <si>
+    <t>Aouad med</t>
+  </si>
+  <si>
+    <t>houari boyumedien</t>
+  </si>
+  <si>
+    <t>NB(206/2025)</t>
+  </si>
+  <si>
+    <t>Dilmi ahmed</t>
+  </si>
+  <si>
+    <t>seghouane</t>
   </si>
 </sst>
 </file>
@@ -414,12 +444,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -436,8 +466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="600077" y="1352550"/>
-          <a:ext cx="4533898" cy="7572375"/>
+          <a:off x="600077" y="1724025"/>
+          <a:ext cx="4524373" cy="7200900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -753,7 +783,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +854,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="17">
         <f>SUMIF(F7:F33,"NB*",G7:G33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -864,7 +894,7 @@
       <c r="J5" s="25"/>
       <c r="K5" s="19">
         <f>SUM(K2:K4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,16 +928,30 @@
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12">
+        <v>46050</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="1"/>
     </row>
@@ -916,16 +960,30 @@
         <f>+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12">
+        <v>46050</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>

--- a/Gestion Stock 2026/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Seghouane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64A8D5-F70E-4E56-B3A1-F5991EF323EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A12CFA3-BA10-4971-BD02-35D7ECE019D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -132,16 +132,10 @@
     <t>Aouad med</t>
   </si>
   <si>
-    <t>houari boyumedien</t>
-  </si>
-  <si>
     <t>NB(206/2025)</t>
   </si>
   <si>
     <t>Dilmi ahmed</t>
-  </si>
-  <si>
-    <t>seghouane</t>
   </si>
 </sst>
 </file>
@@ -783,7 +777,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,9 +943,7 @@
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="1"/>
     </row>
@@ -973,17 +965,15 @@
         <v>46050</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>
